--- a/biology/Botanique/Forêts_de_conifères_tropicales_et_subtropicales/Forêts_de_conifères_tropicales_et_subtropicales.xlsx
+++ b/biology/Botanique/Forêts_de_conifères_tropicales_et_subtropicales/Forêts_de_conifères_tropicales_et_subtropicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_conif%C3%A8res_tropicales_et_subtropicales</t>
+          <t>Forêts_de_conifères_tropicales_et_subtropicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts de conifères tropicales et subtropicales constituent un biome terrestre de type forestier. Les végétaux qui composent ces forêts sont des arbustes et des arbres hérissés d'épines, des conifères et des plantes succulentes.
 Ce biome se situe dans les zones basses où la saison sèche est longue et les précipitations sont rares. On localise ces formations végétales dans les latitudes tropicales et subtropicales :
